--- a/app/config/tables/Ethiopia_members/forms/Ethiopia_Section82_p2/Ethiopia_Section82_p2.xlsx
+++ b/app/config/tables/Ethiopia_members/forms/Ethiopia_Section82_p2/Ethiopia_Section82_p2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\Ethiopia_members\forms\Ethiopia_Section82_p2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16100" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16102" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="4" r:id="rId1"/>
@@ -30,9 +35,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>display.text</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -45,9 +47,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -331,12 +330,18 @@
   </si>
   <si>
     <t>How many hours did {{data.name}} spend purchasing fuel?</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -548,6 +553,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -876,32 +889,32 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -920,16 +933,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -937,18 +950,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -965,63 +978,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>9</v>
       </c>
       <c r="B3">
         <v>20131203</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1045,15 +1058,15 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1062,605 +1075,605 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="15" t="s">
+      <c r="C29" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B30" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="17" t="s">
+      <c r="C30" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="19" t="s">
+      <c r="B31" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="23" t="s">
-        <v>96</v>
-      </c>
       <c r="B32" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="26"/>
       <c r="B38" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
       <c r="B39" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
       <c r="B40" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
       <c r="B41" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
       <c r="B42" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="27"/>
       <c r="B56" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="B57" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="27"/>
       <c r="B58" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="27"/>
       <c r="B59" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="27"/>
       <c r="B60" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="27"/>
       <c r="B61" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="27"/>
       <c r="B62" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="27"/>
       <c r="B63" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="27"/>
       <c r="B64" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
